--- a/Assets/StreamingAssets/Test2.xlsx
+++ b/Assets/StreamingAssets/Test2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Syooian\WorkProjects\Unity\時間軸試驗\TimelineTest\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B6A06-C52D-4CF1-9CBB-A2C472368CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A273B6A-31B8-4A86-AFDF-D54EA5FFC0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="風扇" sheetId="1" r:id="rId1"/>
-    <sheet name="森林大火氣味" sheetId="2" r:id="rId2"/>
+    <sheet name="風扇 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,19 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="153">
-  <si>
-    <t>風扇2</t>
-  </si>
-  <si>
-    <t>風扇3</t>
-  </si>
-  <si>
-    <t>風扇4</t>
-  </si>
-  <si>
-    <t>風扇5</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="138">
   <si>
     <t>數值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,22 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>森林大火氣味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霉味氣味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>臭襪子氣味</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水霧機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,35 +324,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>風扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手扶梯煙霧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交匯站群殭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞穴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列車停止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用量1s=1ml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老鼠群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -840,9 +784,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,14 +802,10 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1151,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1187,57 +1124,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B1" s="28">
-        <v>0</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="29">
+      <c r="A1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="27">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="28">
         <v>6</v>
       </c>
-      <c r="E1" s="29">
+      <c r="E1" s="28">
         <v>5</v>
       </c>
-      <c r="F1" s="29">
+      <c r="F1" s="28">
         <v>4</v>
       </c>
-      <c r="G1" s="29">
+      <c r="G1" s="28">
         <v>3</v>
       </c>
-      <c r="H1" s="29">
+      <c r="H1" s="28">
         <v>2</v>
       </c>
-      <c r="I1" s="29">
-        <v>1</v>
-      </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
+      <c r="I1" s="28">
+        <v>1</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
       <c r="AI1" s="33"/>
       <c r="AJ1" s="33"/>
       <c r="AK1" s="33"/>
@@ -1249,55 +1186,55 @@
     </row>
     <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -1326,25 +1263,25 @@
         <v>0</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K3" s="10">
         <v>0</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M3" s="10">
         <v>0</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O3" s="10">
         <v>0</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="10">
         <v>0</v>
@@ -1361,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1382,25 +1319,25 @@
         <v>0</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K4" s="10">
         <v>0.1</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M4" s="10">
         <v>0.1</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="O4" s="10">
         <v>0.1</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="10">
         <v>0.1</v>
@@ -1417,7 +1354,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1438,25 +1375,25 @@
         <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K5" s="10">
         <v>0.2</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M5" s="10">
         <v>0.2</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O5" s="10">
         <v>0.2</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q5" s="10">
         <v>0.2</v>
@@ -1474,7 +1411,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1495,25 +1432,25 @@
         <v>1</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K6" s="10">
         <v>1</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M6" s="10">
         <v>1</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O6" s="10">
         <v>1</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q6" s="10">
         <v>1</v>
@@ -1531,7 +1468,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1552,25 +1489,25 @@
         <v>1</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K7" s="10">
         <v>0.5</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M7" s="10">
         <v>0.5</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O7" s="10">
         <v>0.5</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q7" s="10">
         <v>0.5</v>
@@ -1586,10 +1523,10 @@
         <v>37</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1610,25 +1547,25 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="K8" s="3">
         <v>0.3</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="M8" s="3">
         <v>0.3</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O8" s="3">
         <v>0.3</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="3">
         <v>0.3</v>
@@ -1646,10 +1583,10 @@
         <v>43</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -1670,25 +1607,25 @@
         <v>1</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K9" s="10">
         <v>0.7</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M9" s="10">
         <v>0.7</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="O9" s="10">
         <v>0.7</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="10">
         <v>0.7</v>
@@ -1706,10 +1643,10 @@
         <v>49</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D10" s="10">
         <v>1</v>
@@ -1730,25 +1667,25 @@
         <v>1</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K10" s="10">
         <v>1</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M10" s="10">
         <v>1</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="O10" s="10">
         <v>1</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="10">
         <v>1</v>
@@ -1763,7 +1700,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -1784,25 +1721,25 @@
         <v>1</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K11" s="10">
         <v>0.6</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M11" s="10">
         <v>0.6</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="O11" s="10">
         <v>0.6</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="10">
         <v>0.6</v>
@@ -1818,7 +1755,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D12" s="10">
         <v>0</v>
@@ -1839,25 +1776,25 @@
         <v>0</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K12" s="10">
         <v>0.3</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M12" s="10">
         <v>0.3</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="O12" s="10">
         <v>0.3</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="10">
         <v>0.3</v>
@@ -1871,10 +1808,10 @@
         <v>63</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D13" s="10">
         <v>1</v>
@@ -1895,25 +1832,25 @@
         <v>1</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K13" s="10">
         <v>0.1</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M13" s="10">
         <v>0.1</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O13" s="10">
         <v>0.1</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="10">
         <v>0.1</v>
@@ -1924,7 +1861,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D14" s="10">
         <v>0</v>
@@ -1945,25 +1882,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K14" s="10">
         <v>0</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10">
         <v>0</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O14" s="10">
         <v>0</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="10">
         <v>0</v>
@@ -1971,50 +1908,50 @@
       <c r="Y14" s="17"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="30">
         <v>78</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="31">
-        <v>0</v>
-      </c>
-      <c r="E15" s="31">
-        <v>0</v>
-      </c>
-      <c r="F15" s="31">
-        <v>0</v>
-      </c>
-      <c r="G15" s="31">
-        <v>0</v>
-      </c>
-      <c r="H15" s="31">
-        <v>0</v>
-      </c>
-      <c r="I15" s="31">
+      <c r="B15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
         <v>0</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K15" s="10">
         <v>0.1</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M15" s="10">
         <v>0.1</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="O15" s="10">
         <v>0.1</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="10">
         <v>0.1</v>
@@ -2025,10 +1962,10 @@
         <v>88</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
@@ -2049,25 +1986,25 @@
         <v>1</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K16" s="10">
         <v>0.3</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M16" s="10">
         <v>0.3</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O16" s="10">
         <v>0.3</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="10">
         <v>0.3</v>
@@ -2078,11 +2015,11 @@
       <c r="A17" s="10">
         <v>99</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>99</v>
+      <c r="B17" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -2103,25 +2040,25 @@
         <v>1</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K17" s="10">
         <v>0.6</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M17" s="10">
         <v>0.6</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="O17" s="10">
         <v>0.6</v>
       </c>
       <c r="P17" s="10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="10">
         <v>0.6</v>
@@ -2132,11 +2069,11 @@
       <c r="A18" s="10">
         <v>109</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>100</v>
+      <c r="B18" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2157,25 +2094,25 @@
         <v>1</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K18" s="10">
         <v>0.8</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10">
         <v>0.8</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="O18" s="10">
         <v>0.8</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="10">
         <v>0.8</v>
@@ -2186,7 +2123,7 @@
         <v>112</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D19" s="10">
         <v>1</v>
@@ -2207,25 +2144,25 @@
         <v>1</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K19" s="10">
         <v>1</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M19" s="10">
         <v>1</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O19" s="10">
         <v>1</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="10">
         <v>1</v>
@@ -2236,7 +2173,7 @@
         <v>116</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D20" s="10">
         <v>1</v>
@@ -2257,25 +2194,25 @@
         <v>1</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K20" s="10">
         <v>0.6</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M20" s="10">
         <v>0.6</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="O20" s="10">
         <v>0.6</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="10">
         <v>0.6</v>
@@ -2289,7 +2226,7 @@
         <v>120</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D21" s="10">
         <v>0</v>
@@ -2315,10 +2252,10 @@
         <v>123</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D22" s="10">
         <v>0</v>
@@ -2339,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K22" s="10">
         <v>0.8</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M22" s="10">
         <v>0.8</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O22" s="10">
         <v>0.8</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="10">
         <v>0.8</v>
@@ -2367,11 +2304,11 @@
       <c r="A23" s="10">
         <v>131</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>105</v>
+      <c r="B23" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -2392,25 +2329,25 @@
         <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M23" s="3">
         <v>1</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O23" s="3">
         <v>1</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="3">
         <v>1</v>
@@ -2422,10 +2359,10 @@
         <v>135</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D24" s="10">
         <v>1</v>
@@ -2446,25 +2383,25 @@
         <v>1</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K24" s="10">
         <v>1</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M24" s="10">
         <v>1</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="O24" s="10">
         <v>1</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="10">
         <v>1</v>
@@ -2475,10 +2412,10 @@
         <v>150</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D25" s="10">
         <v>1</v>
@@ -2499,25 +2436,25 @@
         <v>1</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K25" s="10">
         <v>0.8</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10">
         <v>0.8</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="O25" s="10">
         <v>0.8</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="10">
         <v>0.8</v>
@@ -2528,7 +2465,7 @@
         <v>155</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D26" s="10">
         <v>1</v>
@@ -2549,25 +2486,25 @@
         <v>1</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K26" s="10">
         <v>0.5</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M26" s="10">
         <v>0.5</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O26" s="10">
         <v>0.5</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q26" s="10">
         <v>0.5</v>
@@ -2578,10 +2515,10 @@
         <v>158</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D27" s="10">
         <v>1</v>
@@ -2602,25 +2539,25 @@
         <v>1</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K27" s="10">
         <v>0.3</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M27" s="10">
         <v>0.3</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="O27" s="10">
         <v>0.3</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="10">
         <v>0.3</v>
@@ -2631,10 +2568,10 @@
         <v>159</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D28" s="10">
         <v>1</v>
@@ -2655,25 +2592,25 @@
         <v>1</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K28" s="10">
         <v>0.1</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M28" s="10">
         <v>0.1</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O28" s="10">
         <v>0.1</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Q28" s="10">
         <v>0.1</v>
@@ -2684,7 +2621,7 @@
         <v>165</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D29" s="10">
         <v>1</v>
@@ -2705,25 +2642,25 @@
         <v>1</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K29" s="10">
         <v>0</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M29" s="10">
         <v>0</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="O29" s="10">
         <v>0</v>
       </c>
       <c r="P29" s="10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="Q29" s="10">
         <v>0</v>
@@ -2734,10 +2671,10 @@
         <v>167</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D30" s="10">
         <v>1</v>
@@ -2758,25 +2695,25 @@
         <v>0</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K30" s="10">
         <v>0.5</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M30" s="10">
         <v>0.5</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O30" s="10">
         <v>0.5</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q30" s="10">
         <v>0.5</v>
@@ -2787,10 +2724,10 @@
         <v>184</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D31" s="10">
         <v>0</v>
@@ -2811,25 +2748,25 @@
         <v>0</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K31" s="10">
         <v>0</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M31" s="10">
         <v>0</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O31" s="10">
         <v>0</v>
       </c>
       <c r="P31" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q31" s="10">
         <v>0</v>
@@ -2840,9 +2777,9 @@
         <v>186</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C32" s="36"/>
+        <v>99</v>
+      </c>
+      <c r="C32" s="32"/>
       <c r="D32" s="10">
         <v>0</v>
       </c>
@@ -2862,37 +2799,37 @@
         <v>0</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K32" s="10">
         <v>0.8</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M32" s="10">
         <v>0.8</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="O32" s="10">
         <v>0.8</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="10">
         <v>0.8</v>
       </c>
-      <c r="R32" s="35"/>
+      <c r="R32"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>190</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D33" s="9">
         <v>0</v>
@@ -2913,25 +2850,25 @@
         <v>0</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K33" s="10">
         <v>0.5</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="M33" s="10">
         <v>0.5</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O33" s="10">
         <v>0.5</v>
       </c>
       <c r="P33" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="10">
         <v>0.5</v>
@@ -2941,11 +2878,11 @@
       <c r="A34" s="10">
         <v>192</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>116</v>
+      <c r="B34" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D34" s="22">
         <v>0</v>
@@ -2966,25 +2903,25 @@
         <v>0</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K34" s="3">
         <v>0.8</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M34" s="3">
         <v>0.8</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="O34" s="3">
         <v>0.8</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="3">
         <v>0.8</v>
@@ -2996,7 +2933,7 @@
         <v>197</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D35" s="10">
         <v>1</v>
@@ -3017,25 +2954,25 @@
         <v>1</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K35" s="10">
         <v>1</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M35" s="10">
         <v>1</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="O35" s="10">
         <v>1</v>
       </c>
       <c r="P35" s="10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="10">
         <v>1</v>
@@ -3046,7 +2983,7 @@
         <v>201</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
@@ -3067,25 +3004,25 @@
         <v>1</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K36" s="10">
         <v>0.8</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M36" s="10">
         <v>0.8</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="O36" s="10">
         <v>0.8</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q36" s="10">
         <v>0.8</v>
@@ -3095,11 +3032,11 @@
       <c r="A37" s="10">
         <v>202</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>119</v>
+      <c r="B37" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
@@ -3120,25 +3057,25 @@
         <v>1</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K37" s="10">
         <v>0.5</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M37" s="10">
         <v>0.5</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O37" s="10">
         <v>0.5</v>
       </c>
       <c r="P37" s="10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q37" s="10">
         <v>0.5</v>
@@ -3149,7 +3086,7 @@
         <v>205</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D38" s="10">
         <v>0</v>
@@ -3170,25 +3107,25 @@
         <v>0</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K38" s="10">
         <v>0.8</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="M38" s="10">
         <v>0.8</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="O38" s="10">
         <v>0.8</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="10">
         <v>0.8</v>
@@ -3199,7 +3136,7 @@
         <v>209</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D39" s="10">
         <v>1</v>
@@ -3220,25 +3157,25 @@
         <v>0</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K39" s="10">
         <v>1</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="M39" s="10">
         <v>1</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="O39" s="10">
         <v>1</v>
       </c>
       <c r="P39" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q39" s="10">
         <v>1</v>
@@ -3249,7 +3186,7 @@
         <v>210</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D40" s="10">
         <v>1</v>
@@ -3270,25 +3207,25 @@
         <v>1</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K40" s="10">
         <v>0.7</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M40" s="10">
         <v>0.7</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O40" s="10">
         <v>0.7</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q40" s="10">
         <v>0.7</v>
@@ -3298,11 +3235,11 @@
       <c r="A41" s="10">
         <v>215</v>
       </c>
-      <c r="B41" s="27" t="s">
-        <v>123</v>
+      <c r="B41" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
@@ -3323,25 +3260,25 @@
         <v>0</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K41" s="10">
         <v>0.5</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10">
         <v>0.5</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O41" s="10">
         <v>0.5</v>
       </c>
       <c r="P41" s="10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="Q41" s="10">
         <v>0.5</v>
@@ -3352,7 +3289,7 @@
         <v>218</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D42" s="10">
         <v>0</v>
@@ -3373,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K42" s="10">
         <v>0.3</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10">
         <v>0.3</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O42" s="10">
         <v>0.3</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="Q42" s="10">
         <v>0.3</v>
@@ -3401,11 +3338,11 @@
       <c r="A43" s="10">
         <v>223</v>
       </c>
-      <c r="B43" s="27" t="s">
-        <v>125</v>
+      <c r="B43" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -3426,25 +3363,25 @@
         <v>0</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K43" s="3">
         <v>0.6</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M43" s="3">
         <v>0.6</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="O43" s="3">
         <v>0.6</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="Q43" s="3">
         <v>0.6</v>
@@ -3455,11 +3392,11 @@
       <c r="A44" s="10">
         <v>225</v>
       </c>
-      <c r="B44" s="27" t="s">
-        <v>126</v>
+      <c r="B44" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -3480,25 +3417,25 @@
         <v>1</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K44" s="3">
         <v>0.4</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="M44" s="3">
         <v>0.4</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="O44" s="3">
         <v>0.4</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="3">
         <v>0.4</v>
@@ -3509,11 +3446,11 @@
       <c r="A45" s="10">
         <v>227</v>
       </c>
-      <c r="B45" s="27" t="s">
-        <v>127</v>
+      <c r="B45" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -3534,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K45" s="3">
         <v>0.1</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="M45" s="3">
         <v>0.1</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="O45" s="3">
         <v>0.1</v>
       </c>
       <c r="P45" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="3">
         <v>0.1</v>
@@ -3564,7 +3501,7 @@
         <v>230</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D46" s="10">
         <v>0</v>
@@ -3585,25 +3522,25 @@
         <v>0</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K46" s="10">
         <v>0</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M46" s="10">
         <v>0</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O46" s="10">
         <v>0</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="10">
         <v>0</v>
@@ -3614,7 +3551,7 @@
         <v>235</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D47" s="10">
         <v>0</v>
@@ -3639,11 +3576,11 @@
       <c r="A48" s="10">
         <v>242</v>
       </c>
-      <c r="B48" s="27" t="s">
-        <v>130</v>
+      <c r="B48" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -3669,7 +3606,7 @@
         <v>245</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D49" s="10">
         <v>0</v>
@@ -3695,7 +3632,7 @@
         <v>247</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D50" s="10">
         <v>0</v>
@@ -3721,7 +3658,7 @@
         <v>250</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D51" s="10">
         <v>0</v>
@@ -3747,7 +3684,7 @@
         <v>253</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D52" s="10">
         <v>1</v>
@@ -3773,7 +3710,7 @@
         <v>256</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D53" s="10">
         <v>1</v>
@@ -3799,7 +3736,7 @@
         <v>273</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D54" s="10">
         <v>1</v>
@@ -3825,7 +3762,7 @@
         <v>277</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D55" s="10">
         <v>1</v>
@@ -3851,7 +3788,7 @@
         <v>279</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D56" s="10">
         <v>1</v>
@@ -3877,7 +3814,7 @@
         <v>283</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="D57" s="10">
         <v>0</v>
@@ -3903,7 +3840,7 @@
         <v>287</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D58" s="10">
         <v>1</v>
@@ -3929,7 +3866,7 @@
         <v>300</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D59" s="10">
         <v>0</v>
@@ -3955,7 +3892,7 @@
         <v>305</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D60" s="10">
         <v>0</v>
@@ -3981,7 +3918,7 @@
         <v>311</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D61" s="10">
         <v>1</v>
@@ -4007,7 +3944,7 @@
         <v>316</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D62" s="10">
         <v>1</v>
@@ -4033,7 +3970,7 @@
         <v>321</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D63" s="10">
         <v>0</v>
@@ -4065,63 +4002,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8C94A9-B761-4AB2-8F17-E40C54AAA731}">
-  <dimension ref="A1:AO66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C44DFF3-2613-477E-AA45-73C417285940}">
+  <dimension ref="A1:AP63"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="10"/>
     <col min="2" max="2" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="6" style="10" customWidth="1"/>
-    <col min="8" max="8" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="10" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="10" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="6" style="10" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6" style="10" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" style="10" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="9.140625" style="10"/>
-    <col min="21" max="21" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="12"/>
-    <col min="23" max="25" width="9.140625" style="10"/>
-    <col min="26" max="26" width="9.140625" style="12"/>
-    <col min="27" max="29" width="9.140625" style="10"/>
-    <col min="30" max="30" width="9.140625" style="12"/>
-    <col min="31" max="32" width="9.140625" style="10"/>
-    <col min="33" max="33" width="9.140625" style="12"/>
-    <col min="34" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="3" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="10" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="8" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="10" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="10"/>
+    <col min="22" max="22" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="12"/>
+    <col min="24" max="26" width="9.140625" style="10"/>
+    <col min="27" max="27" width="9.140625" style="12"/>
+    <col min="28" max="30" width="9.140625" style="10"/>
+    <col min="31" max="31" width="9.140625" style="12"/>
+    <col min="32" max="33" width="9.140625" style="10"/>
+    <col min="34" max="34" width="9.140625" style="12"/>
+    <col min="35" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="27">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="28">
+        <v>10</v>
+      </c>
+      <c r="E1" s="28">
+        <v>11</v>
+      </c>
+      <c r="F1" s="28">
+        <v>12</v>
+      </c>
+      <c r="G1" s="28">
+        <v>13</v>
+      </c>
+      <c r="H1" s="28">
+        <v>14</v>
+      </c>
+      <c r="I1" s="28">
+        <v>15</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
       <c r="AI1" s="33"/>
       <c r="AJ1" s="33"/>
       <c r="AK1" s="33"/>
@@ -4129,2029 +4099,1917 @@
       <c r="AM1" s="33"/>
       <c r="AN1" s="33"/>
       <c r="AO1" s="33"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>0</v>
-      </c>
-      <c r="R2" s="23"/>
-      <c r="V2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AG2" s="10"/>
-    </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33" t="s">
+      <c r="AP1" s="33"/>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33" t="s">
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="14"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="15"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="14"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-    </row>
-    <row r="4" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="10">
-        <v>6</v>
-      </c>
-      <c r="D4" s="10">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="K4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="10">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>1</v>
-      </c>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>5</v>
+      <c r="M4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>10</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="10" t="s">
-        <v>5</v>
+      <c r="K5" s="10">
+        <v>0.2</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="10" t="s">
-        <v>5</v>
+      <c r="M5" s="10">
+        <v>0.2</v>
       </c>
       <c r="N5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>5</v>
+      <c r="O5" s="10">
+        <v>0.2</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="14"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>16</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>32</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="23"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="16"/>
+      <c r="AG7" s="17"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>37</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="21"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>43</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="21"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>49</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>55</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="16"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>57</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>63</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>71</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>78</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>88</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="U16" s="17"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>99</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>109</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>112</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="10">
+        <v>1</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>116</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>120</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>123</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>131</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="X5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG5" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>0</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0</v>
-      </c>
-      <c r="S6" s="10">
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>135</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="10">
+        <v>1</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="10">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>150</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>155</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>158</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>159</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T6" s="1">
-        <v>1.8055555555555557E-2</v>
-      </c>
-      <c r="U6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="V6" s="12">
-        <v>1</v>
-      </c>
-      <c r="W6" s="10">
-        <v>71</v>
-      </c>
-      <c r="X6" s="1">
-        <v>4.9305555555555554E-2</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>120</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AC6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD6" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="K28" s="10">
         <v>0.1</v>
       </c>
-      <c r="K7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="10">
+      <c r="L28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="10">
         <v>0.1</v>
       </c>
-      <c r="M7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="10">
+      <c r="N28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="10">
         <v>0.1</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="10">
+      <c r="P28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="10">
         <v>0.1</v>
       </c>
-      <c r="S7" s="10">
-        <v>42</v>
-      </c>
-      <c r="T7" s="1">
-        <v>2.9166666666666664E-2</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="12">
-        <v>0</v>
-      </c>
-      <c r="W7" s="10">
-        <v>80</v>
-      </c>
-      <c r="X7" s="1">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="Y7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>123</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>8.5416666666666655E-2</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="10">
-        <v>147</v>
-      </c>
-      <c r="AF7" s="1">
-        <v>0.10208333333333335</v>
-      </c>
-      <c r="AG7" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>10</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="14"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AE8" s="10">
-        <v>160</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AG8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>16</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="10">
-        <v>1</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="10">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="10">
-        <v>1</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="10">
-        <v>1</v>
-      </c>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>32</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="10">
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>165</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>167</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="10">
         <v>0.5</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="10">
+      <c r="L30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="10">
         <v>0.5</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="10">
+      <c r="N30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="10">
         <v>0.5</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" s="10">
+      <c r="P30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="10">
         <v>0.5</v>
       </c>
-      <c r="S10" s="10">
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>184</v>
       </c>
-      <c r="T10" s="1">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="W10" s="10">
-        <v>247</v>
-      </c>
-      <c r="X10" s="1">
-        <v>0.17152777777777775</v>
-      </c>
-      <c r="Y10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="17"/>
-    </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>37</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S11" s="10">
-        <v>190</v>
-      </c>
-      <c r="T11" s="1">
-        <v>0.13194444444444445</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="W11" s="10">
-        <v>254</v>
-      </c>
-      <c r="X11" s="1">
-        <v>0.1763888888888889</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="9">
-        <v>214</v>
-      </c>
-      <c r="AF11" s="8">
-        <v>0.14861111111111111</v>
-      </c>
-      <c r="AG11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>43</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="M12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AE12" s="9">
-        <v>232</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>0.16111111111111112</v>
-      </c>
-      <c r="AG12" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>49</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="10">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="10">
-        <v>1</v>
-      </c>
-      <c r="M13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="10">
-        <v>1</v>
-      </c>
-      <c r="O13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P13" s="10">
-        <v>1</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>55</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="T14" s="1"/>
-      <c r="U14" s="16"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>57</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>1</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="T15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>63</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="10">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>1</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>71</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="10">
-        <v>0</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0</v>
-      </c>
-      <c r="X17" s="17"/>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>78</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>88</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="B31" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="10">
-        <v>1</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="R19" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" s="17"/>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>186</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB20" s="17"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>109</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="C32" s="32"/>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="10">
         <v>0.8</v>
       </c>
-      <c r="K21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="10">
+      <c r="L32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="10">
         <v>0.8</v>
       </c>
-      <c r="M21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="10">
+      <c r="N32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="10">
         <v>0.8</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="10">
+      <c r="P32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="10">
         <v>0.8</v>
       </c>
-      <c r="R21" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>112</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="10">
-        <v>1</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="10">
-        <v>1</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="10">
-        <v>1</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="10">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>116</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="10">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>120</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="10">
-        <v>0</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>123</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="10">
-        <v>0</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="M25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N25" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P25" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="R25" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>131</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>135</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27" s="10">
-        <v>1</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="10">
-        <v>1</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="10">
-        <v>1</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P27" s="10">
-        <v>1</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>150</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="O28" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P28" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>155</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="10">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L29" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="N29" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>158</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="10">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="M30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N30" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>159</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>1</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="M31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="O31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="P31" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>165</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="10">
-        <v>1</v>
-      </c>
-      <c r="D32" s="10">
-        <v>1</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
-        <v>1</v>
-      </c>
-      <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J32" s="10">
-        <v>0</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="10">
-        <v>0</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N32" s="10">
-        <v>0</v>
-      </c>
-      <c r="O32" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P32" s="10">
-        <v>0</v>
-      </c>
+      <c r="R32"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-      <c r="D33" s="10">
-        <v>1</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="10">
+        <v>100</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="10">
         <v>0.5</v>
       </c>
-      <c r="K33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="10">
+      <c r="L33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="10">
         <v>0.5</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N33" s="10">
+      <c r="N33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="10">
         <v>0.5</v>
       </c>
-      <c r="O33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P33" s="10">
+      <c r="P33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="10">
         <v>0.5</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
-        <v>184</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="10">
-        <v>0</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
-      <c r="E34" s="10">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="10">
-        <v>0</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L34" s="10">
-        <v>0</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N34" s="10">
-        <v>0</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P34" s="10">
-        <v>0</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>74</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="10">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J35" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="M35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P35" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="10">
+        <v>1</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="10">
+        <v>1</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="9">
-        <v>0</v>
-      </c>
-      <c r="D36" s="9">
-        <v>0</v>
-      </c>
-      <c r="E36" s="9">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
-        <v>0</v>
-      </c>
-      <c r="G36" s="9">
-        <v>0</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J36" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L36" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N36" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P36" s="10">
-        <v>0.5</v>
+        <v>103</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>192</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="22">
-        <v>0</v>
-      </c>
-      <c r="D37" s="22">
-        <v>0</v>
-      </c>
-      <c r="E37" s="22">
-        <v>0</v>
-      </c>
-      <c r="F37" s="22">
-        <v>0</v>
-      </c>
-      <c r="G37" s="22">
-        <v>0</v>
-      </c>
-      <c r="H37" s="22">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J37" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N37" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="20" t="s">
-        <v>75</v>
+        <v>202</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="D38" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="10">
         <v>1</v>
@@ -6160,45 +6018,45 @@
         <v>1</v>
       </c>
       <c r="H38" s="10">
-        <v>1</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" s="10">
-        <v>1</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L38" s="10">
-        <v>1</v>
-      </c>
-      <c r="M38" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N38" s="10">
-        <v>1</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0.8</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C39" s="10">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D39" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="10">
         <v>1</v>
@@ -6210,902 +6068,827 @@
         <v>0</v>
       </c>
       <c r="H39" s="10">
-        <v>1</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J39" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L39" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N39" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P39" s="10">
-        <v>0.8</v>
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" s="10">
+        <v>1</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>202</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-      <c r="H40" s="4">
-        <v>1</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="N40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="R40" s="20" t="s">
-        <v>76</v>
+        <v>210</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0.7</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>205</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="10">
-        <v>0</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0</v>
-      </c>
-      <c r="E41" s="10">
-        <v>1</v>
-      </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J41" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L41" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="M41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N41" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="P41" s="10">
-        <v>0.8</v>
+        <v>215</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="10">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="D42" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="10">
         <v>1</v>
       </c>
       <c r="F42" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" s="10">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="10">
-        <v>1</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="L42" s="10">
-        <v>1</v>
-      </c>
-      <c r="M42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="N42" s="10">
-        <v>1</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P42" s="10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0.3</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>210</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1</v>
-      </c>
-      <c r="D43" s="10">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10">
-        <v>1</v>
-      </c>
-      <c r="H43" s="10">
-        <v>1</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J43" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L43" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="N43" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="O43" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P43" s="10">
-        <v>0.7</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>215</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
+        <v>225</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
-        <v>1</v>
-      </c>
-      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>1</v>
       </c>
       <c r="G44" s="4">
         <v>1</v>
       </c>
       <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="L44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="M44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="O44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="R44" s="20" t="s">
-        <v>77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>218</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="10">
-        <v>0</v>
-      </c>
-      <c r="D45" s="10">
-        <v>1</v>
-      </c>
-      <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>1</v>
-      </c>
-      <c r="H45" s="10">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="L45" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N45" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="O45" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="P45" s="10">
-        <v>0.3</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>223</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="4">
-        <v>1</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="20" t="s">
-        <v>78</v>
+        <v>230</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
-        <v>225</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="4">
-        <v>0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4">
-        <v>1</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="20" t="s">
-        <v>79</v>
+        <v>235</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>227</v>
-      </c>
-      <c r="B48" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>245</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>247</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>250</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>253</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>256</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+      <c r="H53" s="10">
+        <v>1</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>273</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>277</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1</v>
+      </c>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>279</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>283</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
+        <v>1</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>287</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>1</v>
+      </c>
+      <c r="I58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>300</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>305</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>230</v>
-      </c>
-      <c r="B49" s="24" t="s">
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>311</v>
+      </c>
+      <c r="B61" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="10">
-        <v>0</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" s="10">
-        <v>0</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L49" s="10">
-        <v>0</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="N49" s="10">
-        <v>0</v>
-      </c>
-      <c r="O49" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>235</v>
-      </c>
-      <c r="B50" s="24" t="s">
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>316</v>
+      </c>
+      <c r="B62" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="10">
-        <v>0</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10">
-        <v>1</v>
-      </c>
-      <c r="H50" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>242</v>
-      </c>
-      <c r="B51" s="27" t="s">
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>321</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0</v>
-      </c>
-      <c r="H51" s="4">
-        <v>1</v>
-      </c>
-      <c r="R51" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>245</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="10">
-        <v>0</v>
-      </c>
-      <c r="D52" s="10">
-        <v>0</v>
-      </c>
-      <c r="E52" s="10">
-        <v>1</v>
-      </c>
-      <c r="F52" s="10">
-        <v>1</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>247</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C53" s="10">
-        <v>0</v>
-      </c>
-      <c r="D53" s="10">
-        <v>0</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-      <c r="F53" s="10">
-        <v>0</v>
-      </c>
-      <c r="G53" s="10">
-        <v>0</v>
-      </c>
-      <c r="H53" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>250</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="10">
-        <v>0</v>
-      </c>
-      <c r="D54" s="10">
-        <v>0</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>253</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="10">
-        <v>1</v>
-      </c>
-      <c r="D55" s="10">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
-      <c r="F55" s="10">
-        <v>1</v>
-      </c>
-      <c r="G55" s="10">
-        <v>1</v>
-      </c>
-      <c r="H55" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>256</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="10">
-        <v>1</v>
-      </c>
-      <c r="D56" s="10">
-        <v>1</v>
-      </c>
-      <c r="E56" s="10">
-        <v>1</v>
-      </c>
-      <c r="F56" s="10">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10">
-        <v>1</v>
-      </c>
-      <c r="H56" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>273</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="10">
-        <v>1</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>1</v>
-      </c>
-      <c r="F57" s="10">
-        <v>1</v>
-      </c>
-      <c r="G57" s="10">
-        <v>0</v>
-      </c>
-      <c r="H57" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>277</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="10">
-        <v>1</v>
-      </c>
-      <c r="D58" s="10">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10">
-        <v>1</v>
-      </c>
-      <c r="F58" s="10">
-        <v>1</v>
-      </c>
-      <c r="G58" s="10">
-        <v>1</v>
-      </c>
-      <c r="H58" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>279</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59" s="10">
-        <v>1</v>
-      </c>
-      <c r="D59" s="10">
-        <v>1</v>
-      </c>
-      <c r="E59" s="10">
-        <v>1</v>
-      </c>
-      <c r="F59" s="10">
-        <v>1</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>283</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C60" s="10">
-        <v>0</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10">
-        <v>1</v>
-      </c>
-      <c r="F60" s="10">
-        <v>1</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>287</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1</v>
-      </c>
-      <c r="D61" s="10">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="10">
-        <v>0</v>
-      </c>
-      <c r="G61" s="10">
-        <v>1</v>
-      </c>
-      <c r="H61" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>300</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" s="10">
-        <v>0</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0</v>
-      </c>
-      <c r="E62" s="10">
-        <v>0</v>
-      </c>
-      <c r="F62" s="10">
-        <v>0</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>305</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="10">
-        <v>0</v>
-      </c>
       <c r="D63" s="10">
         <v>0</v>
       </c>
@@ -7121,100 +6904,13 @@
       <c r="H63" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="10">
-        <v>311</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="10">
-        <v>1</v>
-      </c>
-      <c r="D64" s="10">
-        <v>0</v>
-      </c>
-      <c r="E64" s="10">
-        <v>0</v>
-      </c>
-      <c r="F64" s="10">
-        <v>0</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0</v>
-      </c>
-      <c r="H64" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
-        <v>316</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="10">
-        <v>1</v>
-      </c>
-      <c r="D65" s="10">
-        <v>1</v>
-      </c>
-      <c r="E65" s="10">
-        <v>1</v>
-      </c>
-      <c r="F65" s="10">
-        <v>1</v>
-      </c>
-      <c r="G65" s="10">
-        <v>1</v>
-      </c>
-      <c r="H65" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10">
-        <v>321</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" s="10">
-        <v>0</v>
-      </c>
-      <c r="D66" s="10">
-        <v>0</v>
-      </c>
-      <c r="E66" s="10">
-        <v>0</v>
-      </c>
-      <c r="F66" s="10">
-        <v>0</v>
-      </c>
-      <c r="G66" s="10">
-        <v>0</v>
-      </c>
-      <c r="H66" s="10">
+      <c r="I63" s="10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="S1:AG1"/>
-    <mergeCell ref="AH1:AO1"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="W3:Z3"/>
+  <mergeCells count="1">
+    <mergeCell ref="AI1:AP1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/StreamingAssets/Test2.xlsx
+++ b/Assets/StreamingAssets/Test2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Syooian\WorkProjects\Unity\時間軸試驗\TimelineTest\Assets\StreamingAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Syooian\WorkProjects\A0079\MovingTheater\Unity\時間軸試驗\TimelineTest\Assets\StreamingAssets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A273B6A-31B8-4A86-AFDF-D54EA5FFC0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168FBBD9-F0D7-4872-ADB3-A4BAFE67BFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="139">
   <si>
     <t>數值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,10 @@
   </si>
   <si>
     <t>DMX ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMX ID (0~255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1096,2924 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="10" customWidth="1"/>
+    <col min="12" max="13" width="6.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="8" style="10" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="5.28515625" style="10" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="10" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="10"/>
+    <col min="22" max="22" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="12"/>
+    <col min="24" max="26" width="9.140625" style="10"/>
+    <col min="27" max="27" width="9.140625" style="12"/>
+    <col min="28" max="30" width="9.140625" style="10"/>
+    <col min="31" max="31" width="9.140625" style="12"/>
+    <col min="32" max="33" width="9.140625" style="10"/>
+    <col min="34" max="34" width="9.140625" style="12"/>
+    <col min="35" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="27">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="28">
+        <v>6</v>
+      </c>
+      <c r="E1" s="28">
+        <v>5</v>
+      </c>
+      <c r="F1" s="28">
+        <v>4</v>
+      </c>
+      <c r="G1" s="28">
+        <v>3</v>
+      </c>
+      <c r="H1" s="28">
+        <v>2</v>
+      </c>
+      <c r="I1" s="28">
+        <v>1</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+    </row>
+    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="14"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="15"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="14"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>6</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AG4" s="1"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>10</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="14"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AG5" s="1"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>16</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="10">
+        <v>1</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="10">
+        <v>1</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>32</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="1"/>
+      <c r="V7" s="23"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="16"/>
+      <c r="AG7" s="17"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>37</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="21"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>43</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="21"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>49</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="10">
+        <v>1</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>55</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10">
+        <v>1</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="U11" s="1"/>
+      <c r="V11" s="16"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>57</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="U12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>63</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>71</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="17"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>78</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>88</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>0</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="U16" s="17"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>99</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AC17" s="17"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>109</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>112</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O19" s="10">
+        <v>1</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>116</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10">
+        <v>1</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>120</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>123</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>131</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>50</v>
+      </c>
+      <c r="G23" s="4">
+        <v>50</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="3">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>135</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="10">
+        <v>1</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" s="10">
+        <v>1</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="10">
+        <v>1</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>150</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>155</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>158</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>159</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>165</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>167</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="10">
+        <v>1</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>184</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>186</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="R32"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>190</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>192</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="22">
+        <v>0</v>
+      </c>
+      <c r="E34" s="22">
+        <v>0</v>
+      </c>
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>197</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10">
+        <v>1</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="10">
+        <v>1</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M35" s="10">
+        <v>1</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O35" s="10">
+        <v>1</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>201</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>1</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>202</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>205</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0</v>
+      </c>
+      <c r="E38" s="10">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="N38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O38" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>209</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <v>0</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" s="10">
+        <v>1</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>210</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="10">
+        <v>1</v>
+      </c>
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10">
+        <v>1</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M40" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>215</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>0</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>218</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+      <c r="H42" s="10">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10">
+        <v>0</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q42" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>223</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>225</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>227</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0</v>
+      </c>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>230</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0</v>
+      </c>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
+        <v>0</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" s="10">
+        <v>0</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46" s="10">
+        <v>0</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" s="10">
+        <v>0</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>235</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="10">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>242</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>245</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0</v>
+      </c>
+      <c r="E49" s="10">
+        <v>0</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
+      <c r="I49" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>247</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0</v>
+      </c>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>0</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>250</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>253</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="10">
+        <v>1</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1</v>
+      </c>
+      <c r="H52" s="10">
+        <v>1</v>
+      </c>
+      <c r="I52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="10">
+        <v>256</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+      <c r="H53" s="10">
+        <v>1</v>
+      </c>
+      <c r="I53" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="10">
+        <v>273</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1</v>
+      </c>
+      <c r="H54" s="10">
+        <v>0</v>
+      </c>
+      <c r="I54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="10">
+        <v>277</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="10">
+        <v>1</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10">
+        <v>1</v>
+      </c>
+      <c r="I55" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="10">
+        <v>279</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="10">
+        <v>1</v>
+      </c>
+      <c r="E56" s="10">
+        <v>1</v>
+      </c>
+      <c r="F56" s="10">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>283</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
+        <v>1</v>
+      </c>
+      <c r="H57" s="10">
+        <v>0</v>
+      </c>
+      <c r="I57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="10">
+        <v>287</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D58" s="10">
+        <v>1</v>
+      </c>
+      <c r="E58" s="10">
+        <v>1</v>
+      </c>
+      <c r="F58" s="10">
+        <v>0</v>
+      </c>
+      <c r="G58" s="10">
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <v>1</v>
+      </c>
+      <c r="I58" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="10">
+        <v>300</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0</v>
+      </c>
+      <c r="E59" s="10">
+        <v>0</v>
+      </c>
+      <c r="F59" s="10">
+        <v>0</v>
+      </c>
+      <c r="G59" s="10">
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="10">
+        <v>305</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0</v>
+      </c>
+      <c r="E60" s="10">
+        <v>0</v>
+      </c>
+      <c r="F60" s="10">
+        <v>0</v>
+      </c>
+      <c r="G60" s="10">
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>311</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="10">
+        <v>1</v>
+      </c>
+      <c r="E61" s="10">
+        <v>0</v>
+      </c>
+      <c r="F61" s="10">
+        <v>0</v>
+      </c>
+      <c r="G61" s="10">
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <v>0</v>
+      </c>
+      <c r="I61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>316</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D62" s="10">
+        <v>1</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
+      <c r="F62" s="10">
+        <v>1</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
+        <v>321</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
+      <c r="F63" s="10">
+        <v>0</v>
+      </c>
+      <c r="G63" s="10">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <v>0</v>
+      </c>
+      <c r="I63" s="10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AI1:AP1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C44DFF3-2613-477E-AA45-73C417285940}">
+  <dimension ref="A1:AP63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1134,22 +4055,22 @@
         <v>137</v>
       </c>
       <c r="D1" s="28">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E1" s="28">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F1" s="28">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G1" s="28">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H1" s="28">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I1" s="28">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J1" s="28"/>
       <c r="K1" s="28"/>
@@ -1538,13 +4459,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>7</v>
@@ -2317,2927 +5238,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="4">
-        <v>0.6</v>
+        <v>170</v>
       </c>
       <c r="G23" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>135</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="10">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M24" s="10">
-        <v>1</v>
-      </c>
-      <c r="N24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="10">
-        <v>1</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>150</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>155</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="10">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>158</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="10">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M27" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>159</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="10">
-        <v>1</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10">
-        <v>1</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="N28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>165</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="10">
-        <v>1</v>
-      </c>
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>1</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10">
-        <v>1</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="10">
-        <v>0</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>167</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="10">
-        <v>1</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
-        <v>184</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="10">
-        <v>0</v>
-      </c>
-      <c r="L31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="10">
-        <v>0</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="10">
-        <v>186</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
-      <c r="E32" s="10">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="N32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="R32"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>190</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="9">
-        <v>0</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
-        <v>0</v>
-      </c>
-      <c r="G33" s="9">
-        <v>0</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0</v>
-      </c>
-      <c r="I33" s="9">
-        <v>0</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="10">
-        <v>192</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="22">
-        <v>0</v>
-      </c>
-      <c r="E34" s="22">
-        <v>0</v>
-      </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22">
-        <v>0</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O34" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="R34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
-        <v>197</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>1</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10">
-        <v>1</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="K35" s="10">
-        <v>1</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M35" s="10">
-        <v>1</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O35" s="10">
-        <v>1</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q35" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="10">
-        <v>201</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="10">
-        <v>0</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10">
-        <v>1</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O36" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q36" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="10">
-        <v>202</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="K37" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="O37" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q37" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>205</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
-      <c r="E38" s="10">
-        <v>0</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>1</v>
-      </c>
-      <c r="H38" s="10">
-        <v>0</v>
-      </c>
-      <c r="I38" s="10">
-        <v>0</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K38" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M38" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O38" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="P38" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q38" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>209</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D39" s="10">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10">
-        <v>1</v>
-      </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0</v>
-      </c>
-      <c r="I39" s="10">
-        <v>0</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="10">
-        <v>1</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="10">
-        <v>1</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O39" s="10">
-        <v>1</v>
-      </c>
-      <c r="P39" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q39" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
-        <v>210</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="10">
-        <v>1</v>
-      </c>
-      <c r="E40" s="10">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="10">
-        <v>1</v>
-      </c>
-      <c r="I40" s="10">
-        <v>1</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M40" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O40" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="10">
-        <v>215</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O41" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q41" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="10">
-        <v>218</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
-      <c r="E42" s="10">
-        <v>1</v>
-      </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>1</v>
-      </c>
-      <c r="H42" s="10">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10">
-        <v>0</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K42" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="O42" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q42" s="10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="10">
-        <v>223</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>0</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="10">
-        <v>225</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>227</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="4">
-        <v>1</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>0</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>230</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="10">
-        <v>0</v>
-      </c>
-      <c r="E46" s="10">
-        <v>0</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
-      <c r="H46" s="10">
-        <v>0</v>
-      </c>
-      <c r="I46" s="10">
-        <v>0</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K46" s="10">
-        <v>0</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M46" s="10">
-        <v>0</v>
-      </c>
-      <c r="N46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="O46" s="10">
-        <v>0</v>
-      </c>
-      <c r="P46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q46" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>235</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="10">
-        <v>0</v>
-      </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="10">
-        <v>1</v>
-      </c>
-      <c r="I47" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="10">
-        <v>242</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="10">
-        <v>245</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="10">
-        <v>0</v>
-      </c>
-      <c r="E49" s="10">
-        <v>0</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10">
-        <v>1</v>
-      </c>
-      <c r="H49" s="10">
-        <v>0</v>
-      </c>
-      <c r="I49" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="10">
-        <v>247</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10">
-        <v>0</v>
-      </c>
-      <c r="I50" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
-        <v>250</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10">
-        <v>0</v>
-      </c>
-      <c r="I51" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>253</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="10">
-        <v>1</v>
-      </c>
-      <c r="E52" s="10">
-        <v>1</v>
-      </c>
-      <c r="F52" s="10">
-        <v>1</v>
-      </c>
-      <c r="G52" s="10">
-        <v>1</v>
-      </c>
-      <c r="H52" s="10">
-        <v>1</v>
-      </c>
-      <c r="I52" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
-        <v>256</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="10">
-        <v>1</v>
-      </c>
-      <c r="E53" s="10">
-        <v>1</v>
-      </c>
-      <c r="F53" s="10">
-        <v>1</v>
-      </c>
-      <c r="G53" s="10">
-        <v>1</v>
-      </c>
-      <c r="H53" s="10">
-        <v>1</v>
-      </c>
-      <c r="I53" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="10">
-        <v>273</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="10">
-        <v>1</v>
-      </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="10">
-        <v>1</v>
-      </c>
-      <c r="G54" s="10">
-        <v>1</v>
-      </c>
-      <c r="H54" s="10">
-        <v>0</v>
-      </c>
-      <c r="I54" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>277</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="10">
-        <v>1</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
-      <c r="F55" s="10">
-        <v>1</v>
-      </c>
-      <c r="G55" s="10">
-        <v>1</v>
-      </c>
-      <c r="H55" s="10">
-        <v>1</v>
-      </c>
-      <c r="I55" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>279</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="10">
-        <v>1</v>
-      </c>
-      <c r="E56" s="10">
-        <v>1</v>
-      </c>
-      <c r="F56" s="10">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10">
-        <v>1</v>
-      </c>
-      <c r="H56" s="10">
-        <v>0</v>
-      </c>
-      <c r="I56" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
-        <v>283</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="10">
-        <v>0</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="10">
-        <v>1</v>
-      </c>
-      <c r="G57" s="10">
-        <v>1</v>
-      </c>
-      <c r="H57" s="10">
-        <v>0</v>
-      </c>
-      <c r="I57" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>287</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="10">
-        <v>1</v>
-      </c>
-      <c r="E58" s="10">
-        <v>1</v>
-      </c>
-      <c r="F58" s="10">
-        <v>0</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10">
-        <v>1</v>
-      </c>
-      <c r="I58" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
-        <v>300</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="10">
-        <v>0</v>
-      </c>
-      <c r="E59" s="10">
-        <v>0</v>
-      </c>
-      <c r="F59" s="10">
-        <v>0</v>
-      </c>
-      <c r="G59" s="10">
-        <v>0</v>
-      </c>
-      <c r="H59" s="10">
-        <v>0</v>
-      </c>
-      <c r="I59" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="10">
-        <v>305</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0</v>
-      </c>
-      <c r="E60" s="10">
-        <v>0</v>
-      </c>
-      <c r="F60" s="10">
-        <v>0</v>
-      </c>
-      <c r="G60" s="10">
-        <v>0</v>
-      </c>
-      <c r="H60" s="10">
-        <v>0</v>
-      </c>
-      <c r="I60" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
-        <v>311</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D61" s="10">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10">
-        <v>0</v>
-      </c>
-      <c r="F61" s="10">
-        <v>0</v>
-      </c>
-      <c r="G61" s="10">
-        <v>0</v>
-      </c>
-      <c r="H61" s="10">
-        <v>0</v>
-      </c>
-      <c r="I61" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="10">
-        <v>316</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62" s="10">
-        <v>1</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1</v>
-      </c>
-      <c r="F62" s="10">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10">
-        <v>1</v>
-      </c>
-      <c r="H62" s="10">
-        <v>1</v>
-      </c>
-      <c r="I62" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
-        <v>321</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D63" s="10">
-        <v>0</v>
-      </c>
-      <c r="E63" s="10">
-        <v>0</v>
-      </c>
-      <c r="F63" s="10">
-        <v>0</v>
-      </c>
-      <c r="G63" s="10">
-        <v>0</v>
-      </c>
-      <c r="H63" s="10">
-        <v>0</v>
-      </c>
-      <c r="I63" s="10">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="AI1:AP1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C44DFF3-2613-477E-AA45-73C417285940}">
-  <dimension ref="A1:AP63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="6" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="10" customWidth="1"/>
-    <col min="12" max="13" width="6.7109375" style="10" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="8" style="10" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="10" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" style="10" customWidth="1"/>
-    <col min="20" max="21" width="9.140625" style="10"/>
-    <col min="22" max="22" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="12"/>
-    <col min="24" max="26" width="9.140625" style="10"/>
-    <col min="27" max="27" width="9.140625" style="12"/>
-    <col min="28" max="30" width="9.140625" style="10"/>
-    <col min="31" max="31" width="9.140625" style="12"/>
-    <col min="32" max="33" width="9.140625" style="10"/>
-    <col min="34" max="34" width="9.140625" style="12"/>
-    <col min="35" max="16384" width="9.140625" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="27">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="28">
-        <v>10</v>
-      </c>
-      <c r="E1" s="28">
-        <v>11</v>
-      </c>
-      <c r="F1" s="28">
-        <v>12</v>
-      </c>
-      <c r="G1" s="28">
-        <v>13</v>
-      </c>
-      <c r="H1" s="28">
-        <v>14</v>
-      </c>
-      <c r="I1" s="28">
-        <v>15</v>
-      </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-    </row>
-    <row r="2" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>0</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="10">
-        <v>0</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1"/>
-      <c r="V3" s="14"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="15"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="14"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>6</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AG4" s="1"/>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="P5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="14"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AG5" s="1"/>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>16</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="10">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="10">
-        <v>1</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="10">
-        <v>1</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>32</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="23"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="16"/>
-      <c r="AG7" s="17"/>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>37</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="R8" s="3"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="21"/>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>43</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="21"/>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>49</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="10">
-        <v>1</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="10">
-        <v>1</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>1</v>
-      </c>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="1"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>55</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="P11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="16"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>57</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>1</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="O12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>63</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>71</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="10">
-        <v>0</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="17"/>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>78</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>88</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>0</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
-        <v>1</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="O16" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="U16" s="17"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>99</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="AC17" s="17"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>109</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>112</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="10">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="10">
-        <v>1</v>
-      </c>
-      <c r="L19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="10">
-        <v>1</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O19" s="10">
-        <v>1</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>116</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="O20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>120</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>123</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="O22" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>131</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.6</v>
+        <v>170</v>
       </c>
       <c r="H23" s="4">
         <v>0</v>
